--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed5/result_data_RandomForest.xlsx
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.961200000000002</v>
+        <v>5.049999999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.156400000000006</v>
+        <v>5.981400000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.307399999999999</v>
+        <v>6.701299999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.259900000000002</v>
+        <v>9.119200000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.062800000000002</v>
+        <v>5.040100000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.394600000000008</v>
+        <v>6.478899999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.650899999999997</v>
+        <v>4.650599999999995</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.338999999999998</v>
+        <v>5.437699999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.998599999999999</v>
+        <v>4.851199999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.590099999999995</v>
+        <v>5.449599999999996</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.316399999999999</v>
+        <v>5.157399999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.051100000000003</v>
+        <v>4.871300000000003</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.669199999999998</v>
+        <v>5.6107</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.933400000000002</v>
+        <v>4.7746</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.477100000000004</v>
+        <v>5.4212</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.784800000000003</v>
+        <v>5.794200000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.723799999999998</v>
+        <v>4.742399999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
